--- a/output/RedList_matrix.xlsx
+++ b/output/RedList_matrix.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
   <si>
     <t xml:space="preserve">1982</t>
   </si>
@@ -50,16 +53,34 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
+    <t xml:space="preserve">Caiman crocodilus</t>
+  </si>
+  <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
+    <t xml:space="preserve">Crocodylus acutus</t>
+  </si>
+  <si>
     <t xml:space="preserve">EN</t>
   </si>
   <si>
     <t xml:space="preserve">VU</t>
   </si>
   <si>
+    <t xml:space="preserve">Crocodylus intermedius</t>
+  </si>
+  <si>
     <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanosuchus niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleosuchus palpebrosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleosuchus trigonatus</t>
   </si>
 </sst>
 </file>
@@ -428,146 +449,167 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2"/>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
       <c r="H2"/>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
+      <c r="M2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3"/>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" t="s">
-        <v>14</v>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4"/>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
       <c r="L4"/>
+      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
+      <c r="M5"/>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6"/>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6"/>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6"/>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7"/>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
